--- a/pred_ohlcv/54_21/2019-11-02 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ZRX ohlcv.xlsx
@@ -1458,7 +1458,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-53064.78123405379</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-54561.93223120479</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-54560.20663405379</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-48937.54593405379</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>108862.6450575491</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>115761.2184575491</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>117367.9264575491</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>113473.5362575491</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>109798.2988575491</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>117653.4255575491</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>118885.8451575491</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>116300.1830575491</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>116311.6083575491</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>114882.2354575491</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-46290.37322635895</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-47001.80502635895</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-38757.88405466688</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-41591.9311543787</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>107663.0267456213</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>106459.9734456213</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>106680.3736456213</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>105864.5183456213</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>107475.7256456213</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>107505.4387456213</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>105233.7976456213</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>116273.0578456213</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>102834.9479456213</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>100182.0663456213</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>110214.1613818573</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>119782.0022818573</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ZRX ohlcv.xlsx
@@ -1458,7 +1458,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-53064.78123405379</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-54561.93223120479</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-54560.20663405379</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-48937.54593405379</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>13814.76935754914</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>15828.46735754914</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>21236.36565754914</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>18762.60905754914</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>18762.60905754914</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>108884.3109575491</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>108862.6450575491</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>108475.2238575491</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>108732.5238575491</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>109203.657416767</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>120644.6465575491</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>115761.2184575491</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>117367.9264575491</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>113473.5362575491</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>117653.4255575491</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>118885.8451575491</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>116300.1830575491</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-46290.37322635895</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-47001.80502635895</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-38757.88405466688</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-41591.9311543787</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>107663.0267456213</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>106459.9734456213</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>106680.3736456213</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>105864.5183456213</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>107475.7256456213</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>107505.4387456213</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>105233.7976456213</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>116273.0578456213</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>102834.9479456213</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>100182.0663456213</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>110214.1613818573</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>119782.0022818573</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
